--- a/Spring_25/CS2110/hw03/microcode.xlsx
+++ b/Spring_25/CS2110/hw03/microcode.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizabethhong/Downloads/CS 2110/Spring 2025/HW-LC3Datapath/student/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasstone/Documents/Georgia_Tech/Spring_25/CS2110/hw03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8A9769-4C5D-9649-9D8C-C98002731DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE846AE3-2BF5-B84B-AB7A-13D696EF4B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="15000" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="microcode" sheetId="1" r:id="rId1"/>
     <sheet name="output" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1473,15 +1473,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BW88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X75" sqref="X75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="30" width="4.6640625" customWidth="1"/>
+    <col min="2" max="3" width="4.6640625" customWidth="1"/>
+    <col min="4" max="4" width="4.5" customWidth="1"/>
+    <col min="5" max="30" width="4.6640625" customWidth="1"/>
     <col min="31" max="31" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5381,32 +5383,72 @@
         <v>76</v>
       </c>
       <c r="B59" s="38"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="88"/>
-      <c r="E59" s="88"/>
-      <c r="F59" s="88"/>
-      <c r="G59" s="88"/>
-      <c r="H59" s="88"/>
-      <c r="I59" s="89"/>
-      <c r="J59" s="89"/>
-      <c r="K59" s="89"/>
-      <c r="L59" s="89"/>
-      <c r="M59" s="90"/>
-      <c r="N59" s="91"/>
-      <c r="O59" s="91">
-        <v>0</v>
-      </c>
-      <c r="P59" s="83">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="91"/>
-      <c r="R59" s="90"/>
-      <c r="S59" s="91"/>
-      <c r="T59" s="91"/>
-      <c r="U59" s="90"/>
-      <c r="V59" s="91"/>
-      <c r="W59" s="92"/>
-      <c r="X59" s="92"/>
+      <c r="C59" s="61">
+        <v>0</v>
+      </c>
+      <c r="D59" s="61">
+        <v>0</v>
+      </c>
+      <c r="E59" s="61">
+        <v>0</v>
+      </c>
+      <c r="F59" s="61">
+        <v>0</v>
+      </c>
+      <c r="G59" s="61">
+        <v>0</v>
+      </c>
+      <c r="H59" s="61">
+        <v>1</v>
+      </c>
+      <c r="I59" s="76">
+        <v>0</v>
+      </c>
+      <c r="J59" s="76">
+        <v>0</v>
+      </c>
+      <c r="K59" s="76">
+        <v>1</v>
+      </c>
+      <c r="L59" s="76">
+        <v>0</v>
+      </c>
+      <c r="M59" s="76">
+        <v>0</v>
+      </c>
+      <c r="N59" s="76">
+        <v>1</v>
+      </c>
+      <c r="O59" s="76">
+        <v>0</v>
+      </c>
+      <c r="P59" s="76">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="76">
+        <v>1</v>
+      </c>
+      <c r="R59" s="76">
+        <v>1</v>
+      </c>
+      <c r="S59" s="76">
+        <v>0</v>
+      </c>
+      <c r="T59" s="76">
+        <v>0</v>
+      </c>
+      <c r="U59" s="76">
+        <v>0</v>
+      </c>
+      <c r="V59" s="76">
+        <v>0</v>
+      </c>
+      <c r="W59" s="76">
+        <v>0</v>
+      </c>
+      <c r="X59" s="76">
+        <v>0</v>
+      </c>
       <c r="Y59" s="117">
         <v>1</v>
       </c>
@@ -5427,7 +5469,7 @@
       </c>
       <c r="AH59" t="str">
         <f>_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(C59:F59), 1), BIN2HEX(_xlfn.CONCAT(G59:N59), 2), BIN2HEX(_xlfn.CONCAT(O59:V59), 2), BIN2HEX(_xlfn.CONCAT(W59:AD59), 2) )</f>
-        <v>000003F</v>
+        <v>049303F</v>
       </c>
     </row>
     <row r="60" spans="1:34" ht="31" x14ac:dyDescent="0.35">
@@ -5501,32 +5543,72 @@
         <v>78</v>
       </c>
       <c r="B62" s="76"/>
-      <c r="C62" s="93"/>
-      <c r="D62" s="94"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="94"/>
-      <c r="G62" s="94"/>
-      <c r="H62" s="94"/>
-      <c r="I62" s="95"/>
-      <c r="J62" s="95"/>
-      <c r="K62" s="95"/>
-      <c r="L62" s="95"/>
-      <c r="M62" s="82"/>
-      <c r="N62" s="83"/>
+      <c r="C62" s="93">
+        <v>1</v>
+      </c>
+      <c r="D62" s="94">
+        <v>0</v>
+      </c>
+      <c r="E62" s="94">
+        <v>0</v>
+      </c>
+      <c r="F62" s="94">
+        <v>0</v>
+      </c>
+      <c r="G62" s="94">
+        <v>0</v>
+      </c>
+      <c r="H62" s="94">
+        <v>0</v>
+      </c>
+      <c r="I62" s="95">
+        <v>0</v>
+      </c>
+      <c r="J62" s="95">
+        <v>0</v>
+      </c>
+      <c r="K62" s="95">
+        <v>0</v>
+      </c>
+      <c r="L62" s="95">
+        <v>1</v>
+      </c>
+      <c r="M62" s="82">
+        <v>0</v>
+      </c>
+      <c r="N62" s="83">
+        <v>0</v>
+      </c>
       <c r="O62" s="83">
         <v>0</v>
       </c>
       <c r="P62" s="83">
         <v>1</v>
       </c>
-      <c r="Q62" s="83"/>
-      <c r="R62" s="82"/>
-      <c r="S62" s="83"/>
-      <c r="T62" s="83"/>
-      <c r="U62" s="82"/>
-      <c r="V62" s="83"/>
-      <c r="W62" s="96"/>
-      <c r="X62" s="96"/>
+      <c r="Q62" s="83">
+        <v>1</v>
+      </c>
+      <c r="R62" s="82">
+        <v>1</v>
+      </c>
+      <c r="S62" s="83">
+        <v>0</v>
+      </c>
+      <c r="T62" s="83">
+        <v>0</v>
+      </c>
+      <c r="U62" s="82">
+        <v>0</v>
+      </c>
+      <c r="V62" s="83">
+        <v>0</v>
+      </c>
+      <c r="W62" s="96">
+        <v>0</v>
+      </c>
+      <c r="X62" s="96">
+        <v>0</v>
+      </c>
       <c r="Y62" s="110">
         <v>1</v>
       </c>
@@ -5547,7 +5629,7 @@
       </c>
       <c r="AH62" t="str">
         <f t="shared" ref="AH62:AH68" si="4">_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(C62:F62), 1), BIN2HEX(_xlfn.CONCAT(G62:N62), 2), BIN2HEX(_xlfn.CONCAT(O62:V62), 2), BIN2HEX(_xlfn.CONCAT(W62:AD62), 2) )</f>
-        <v>0000129</v>
+        <v>8047029</v>
       </c>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.2">
@@ -5555,32 +5637,72 @@
         <v>79</v>
       </c>
       <c r="B63" s="76"/>
-      <c r="C63" s="93"/>
-      <c r="D63" s="94"/>
-      <c r="E63" s="94"/>
-      <c r="F63" s="94"/>
-      <c r="G63" s="94"/>
-      <c r="H63" s="94"/>
-      <c r="I63" s="95"/>
-      <c r="J63" s="95"/>
-      <c r="K63" s="95"/>
-      <c r="L63" s="95"/>
-      <c r="M63" s="82"/>
-      <c r="N63" s="83"/>
+      <c r="C63" s="93">
+        <v>0</v>
+      </c>
+      <c r="D63" s="94">
+        <v>1</v>
+      </c>
+      <c r="E63" s="94">
+        <v>0</v>
+      </c>
+      <c r="F63" s="94">
+        <v>0</v>
+      </c>
+      <c r="G63" s="94">
+        <v>0</v>
+      </c>
+      <c r="H63" s="94">
+        <v>0</v>
+      </c>
+      <c r="I63" s="95">
+        <v>0</v>
+      </c>
+      <c r="J63" s="95">
+        <v>0</v>
+      </c>
+      <c r="K63" s="95">
+        <v>0</v>
+      </c>
+      <c r="L63" s="95">
+        <v>0</v>
+      </c>
+      <c r="M63" s="82">
+        <v>0</v>
+      </c>
+      <c r="N63" s="83">
+        <v>0</v>
+      </c>
       <c r="O63" s="83">
         <v>0</v>
       </c>
       <c r="P63" s="83">
         <v>0</v>
       </c>
-      <c r="Q63" s="83"/>
-      <c r="R63" s="82"/>
-      <c r="S63" s="83"/>
-      <c r="T63" s="83"/>
-      <c r="U63" s="82"/>
-      <c r="V63" s="83"/>
-      <c r="W63" s="96"/>
-      <c r="X63" s="96"/>
+      <c r="Q63" s="83">
+        <v>0</v>
+      </c>
+      <c r="R63" s="82">
+        <v>0</v>
+      </c>
+      <c r="S63" s="83">
+        <v>0</v>
+      </c>
+      <c r="T63" s="83">
+        <v>0</v>
+      </c>
+      <c r="U63" s="82">
+        <v>0</v>
+      </c>
+      <c r="V63" s="83">
+        <v>0</v>
+      </c>
+      <c r="W63" s="96">
+        <v>1</v>
+      </c>
+      <c r="X63" s="96">
+        <v>0</v>
+      </c>
       <c r="Y63" s="110">
         <v>1</v>
       </c>
@@ -5601,7 +5723,7 @@
       </c>
       <c r="AH63" t="str">
         <f t="shared" si="4"/>
-        <v>000002A</v>
+        <v>40000AA</v>
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.2">
@@ -5609,32 +5731,72 @@
         <v>80</v>
       </c>
       <c r="B64" s="76"/>
-      <c r="C64" s="93"/>
-      <c r="D64" s="94"/>
-      <c r="E64" s="94"/>
-      <c r="F64" s="94"/>
-      <c r="G64" s="94"/>
-      <c r="H64" s="94"/>
-      <c r="I64" s="95"/>
-      <c r="J64" s="95"/>
-      <c r="K64" s="95"/>
-      <c r="L64" s="95"/>
-      <c r="M64" s="82"/>
-      <c r="N64" s="83"/>
+      <c r="C64" s="93">
+        <v>1</v>
+      </c>
+      <c r="D64" s="94">
+        <v>0</v>
+      </c>
+      <c r="E64" s="94">
+        <v>0</v>
+      </c>
+      <c r="F64" s="94">
+        <v>0</v>
+      </c>
+      <c r="G64" s="94">
+        <v>0</v>
+      </c>
+      <c r="H64" s="94">
+        <v>0</v>
+      </c>
+      <c r="I64" s="95">
+        <v>0</v>
+      </c>
+      <c r="J64" s="95">
+        <v>1</v>
+      </c>
+      <c r="K64" s="95">
+        <v>0</v>
+      </c>
+      <c r="L64" s="95">
+        <v>0</v>
+      </c>
+      <c r="M64" s="82">
+        <v>0</v>
+      </c>
+      <c r="N64" s="83">
+        <v>0</v>
+      </c>
       <c r="O64" s="83">
         <v>0</v>
       </c>
       <c r="P64" s="83">
         <v>0</v>
       </c>
-      <c r="Q64" s="83"/>
-      <c r="R64" s="82"/>
-      <c r="S64" s="83"/>
-      <c r="T64" s="83"/>
-      <c r="U64" s="82"/>
-      <c r="V64" s="83"/>
-      <c r="W64" s="96"/>
-      <c r="X64" s="96"/>
+      <c r="Q64" s="83">
+        <v>0</v>
+      </c>
+      <c r="R64" s="82">
+        <v>0</v>
+      </c>
+      <c r="S64" s="83">
+        <v>0</v>
+      </c>
+      <c r="T64" s="83">
+        <v>0</v>
+      </c>
+      <c r="U64" s="82">
+        <v>0</v>
+      </c>
+      <c r="V64" s="83">
+        <v>0</v>
+      </c>
+      <c r="W64" s="96">
+        <v>0</v>
+      </c>
+      <c r="X64" s="96">
+        <v>0</v>
+      </c>
       <c r="Y64" s="110">
         <v>1</v>
       </c>
@@ -5655,7 +5817,7 @@
       </c>
       <c r="AH64" t="str">
         <f t="shared" si="4"/>
-        <v>000002B</v>
+        <v>810002B</v>
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.2">
@@ -5663,32 +5825,72 @@
         <v>81</v>
       </c>
       <c r="B65" s="130"/>
-      <c r="C65" s="93"/>
-      <c r="D65" s="93"/>
-      <c r="E65" s="93"/>
-      <c r="F65" s="93"/>
-      <c r="G65" s="93"/>
-      <c r="H65" s="93"/>
-      <c r="I65" s="81"/>
-      <c r="J65" s="81"/>
-      <c r="K65" s="81"/>
-      <c r="L65" s="81"/>
-      <c r="M65" s="85"/>
-      <c r="N65" s="83"/>
+      <c r="C65" s="93">
+        <v>0</v>
+      </c>
+      <c r="D65" s="93">
+        <v>1</v>
+      </c>
+      <c r="E65" s="93">
+        <v>0</v>
+      </c>
+      <c r="F65" s="93">
+        <v>0</v>
+      </c>
+      <c r="G65" s="93">
+        <v>0</v>
+      </c>
+      <c r="H65" s="93">
+        <v>0</v>
+      </c>
+      <c r="I65" s="81">
+        <v>0</v>
+      </c>
+      <c r="J65" s="81">
+        <v>0</v>
+      </c>
+      <c r="K65" s="81">
+        <v>0</v>
+      </c>
+      <c r="L65" s="81">
+        <v>0</v>
+      </c>
+      <c r="M65" s="85">
+        <v>0</v>
+      </c>
+      <c r="N65" s="83">
+        <v>0</v>
+      </c>
       <c r="O65" s="84">
         <v>0</v>
       </c>
       <c r="P65" s="84">
         <v>0</v>
       </c>
-      <c r="Q65" s="84"/>
-      <c r="R65" s="85"/>
-      <c r="S65" s="83"/>
-      <c r="T65" s="84"/>
-      <c r="U65" s="85"/>
-      <c r="V65" s="83"/>
-      <c r="W65" s="109"/>
-      <c r="X65" s="109"/>
+      <c r="Q65" s="84">
+        <v>0</v>
+      </c>
+      <c r="R65" s="85">
+        <v>0</v>
+      </c>
+      <c r="S65" s="83">
+        <v>0</v>
+      </c>
+      <c r="T65" s="84">
+        <v>0</v>
+      </c>
+      <c r="U65" s="85">
+        <v>0</v>
+      </c>
+      <c r="V65" s="83">
+        <v>0</v>
+      </c>
+      <c r="W65" s="109">
+        <v>1</v>
+      </c>
+      <c r="X65" s="109">
+        <v>0</v>
+      </c>
       <c r="Y65" s="97">
         <v>1</v>
       </c>
@@ -5709,7 +5911,7 @@
       </c>
       <c r="AH65" t="str">
         <f t="shared" si="4"/>
-        <v>000002C</v>
+        <v>40000AC</v>
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.2">
@@ -5717,32 +5919,72 @@
         <v>82</v>
       </c>
       <c r="B66" s="76"/>
-      <c r="C66" s="93"/>
-      <c r="D66" s="94"/>
-      <c r="E66" s="94"/>
-      <c r="F66" s="94"/>
-      <c r="G66" s="94"/>
-      <c r="H66" s="94"/>
-      <c r="I66" s="95"/>
-      <c r="J66" s="95"/>
-      <c r="K66" s="95"/>
-      <c r="L66" s="95"/>
-      <c r="M66" s="82"/>
-      <c r="N66" s="83"/>
+      <c r="C66" s="93">
+        <v>1</v>
+      </c>
+      <c r="D66" s="94">
+        <v>0</v>
+      </c>
+      <c r="E66" s="94">
+        <v>0</v>
+      </c>
+      <c r="F66" s="94">
+        <v>0</v>
+      </c>
+      <c r="G66" s="94">
+        <v>0</v>
+      </c>
+      <c r="H66" s="94">
+        <v>0</v>
+      </c>
+      <c r="I66" s="95">
+        <v>0</v>
+      </c>
+      <c r="J66" s="95">
+        <v>1</v>
+      </c>
+      <c r="K66" s="95">
+        <v>0</v>
+      </c>
+      <c r="L66" s="95">
+        <v>0</v>
+      </c>
+      <c r="M66" s="82">
+        <v>0</v>
+      </c>
+      <c r="N66" s="83">
+        <v>0</v>
+      </c>
       <c r="O66" s="83">
         <v>0</v>
       </c>
       <c r="P66" s="83">
         <v>0</v>
       </c>
-      <c r="Q66" s="83"/>
-      <c r="R66" s="82"/>
-      <c r="S66" s="83"/>
-      <c r="T66" s="83"/>
-      <c r="U66" s="82"/>
-      <c r="V66" s="83"/>
-      <c r="W66" s="96"/>
-      <c r="X66" s="126"/>
+      <c r="Q66" s="83">
+        <v>0</v>
+      </c>
+      <c r="R66" s="82">
+        <v>0</v>
+      </c>
+      <c r="S66" s="83">
+        <v>0</v>
+      </c>
+      <c r="T66" s="83">
+        <v>0</v>
+      </c>
+      <c r="U66" s="82">
+        <v>0</v>
+      </c>
+      <c r="V66" s="83">
+        <v>0</v>
+      </c>
+      <c r="W66" s="96">
+        <v>0</v>
+      </c>
+      <c r="X66" s="126">
+        <v>0</v>
+      </c>
       <c r="Y66" s="97">
         <v>1</v>
       </c>
@@ -5763,7 +6005,7 @@
       </c>
       <c r="AH66" t="str">
         <f t="shared" si="4"/>
-        <v>000002D</v>
+        <v>810002D</v>
       </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.2">
@@ -5771,32 +6013,72 @@
         <v>83</v>
       </c>
       <c r="B67" s="76"/>
-      <c r="C67" s="93"/>
-      <c r="D67" s="94"/>
-      <c r="E67" s="94"/>
-      <c r="F67" s="94"/>
-      <c r="G67" s="94"/>
-      <c r="H67" s="94"/>
-      <c r="I67" s="95"/>
-      <c r="J67" s="95"/>
-      <c r="K67" s="95"/>
-      <c r="L67" s="95"/>
-      <c r="M67" s="82"/>
-      <c r="N67" s="83"/>
+      <c r="C67" s="93">
+        <v>0</v>
+      </c>
+      <c r="D67" s="94">
+        <v>0</v>
+      </c>
+      <c r="E67" s="94">
+        <v>0</v>
+      </c>
+      <c r="F67" s="94">
+        <v>0</v>
+      </c>
+      <c r="G67" s="94">
+        <v>0</v>
+      </c>
+      <c r="H67" s="94">
+        <v>0</v>
+      </c>
+      <c r="I67" s="95">
+        <v>0</v>
+      </c>
+      <c r="J67" s="95">
+        <v>0</v>
+      </c>
+      <c r="K67" s="95">
+        <v>1</v>
+      </c>
+      <c r="L67" s="95">
+        <v>0</v>
+      </c>
+      <c r="M67" s="82">
+        <v>0</v>
+      </c>
+      <c r="N67" s="83">
+        <v>0</v>
+      </c>
       <c r="O67" s="83">
         <v>0</v>
       </c>
       <c r="P67" s="83">
         <v>0</v>
       </c>
-      <c r="Q67" s="83"/>
-      <c r="R67" s="82"/>
-      <c r="S67" s="83"/>
-      <c r="T67" s="83"/>
-      <c r="U67" s="82"/>
-      <c r="V67" s="83"/>
-      <c r="W67" s="96"/>
-      <c r="X67" s="126"/>
+      <c r="Q67" s="83">
+        <v>0</v>
+      </c>
+      <c r="R67" s="82">
+        <v>0</v>
+      </c>
+      <c r="S67" s="83">
+        <v>0</v>
+      </c>
+      <c r="T67" s="83">
+        <v>0</v>
+      </c>
+      <c r="U67" s="82">
+        <v>0</v>
+      </c>
+      <c r="V67" s="83">
+        <v>0</v>
+      </c>
+      <c r="W67" s="96">
+        <v>1</v>
+      </c>
+      <c r="X67" s="126">
+        <v>1</v>
+      </c>
       <c r="Y67" s="97">
         <v>1</v>
       </c>
@@ -5817,7 +6099,7 @@
       </c>
       <c r="AH67" t="str">
         <f t="shared" si="4"/>
-        <v>000002E</v>
+        <v>00800EE</v>
       </c>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.2">
@@ -5825,32 +6107,72 @@
         <v>84</v>
       </c>
       <c r="B68" s="76"/>
-      <c r="C68" s="93"/>
-      <c r="D68" s="94"/>
-      <c r="E68" s="94"/>
-      <c r="F68" s="94"/>
-      <c r="G68" s="94"/>
-      <c r="H68" s="94"/>
-      <c r="I68" s="95"/>
-      <c r="J68" s="95"/>
-      <c r="K68" s="95"/>
-      <c r="L68" s="95"/>
-      <c r="M68" s="82"/>
-      <c r="N68" s="83"/>
+      <c r="C68" s="93">
+        <v>0</v>
+      </c>
+      <c r="D68" s="94">
+        <v>0</v>
+      </c>
+      <c r="E68" s="94">
+        <v>0</v>
+      </c>
+      <c r="F68" s="94">
+        <v>0</v>
+      </c>
+      <c r="G68" s="94">
+        <v>0</v>
+      </c>
+      <c r="H68" s="94">
+        <v>0</v>
+      </c>
+      <c r="I68" s="95">
+        <v>0</v>
+      </c>
+      <c r="J68" s="95">
+        <v>0</v>
+      </c>
+      <c r="K68" s="95">
+        <v>0</v>
+      </c>
+      <c r="L68" s="95">
+        <v>0</v>
+      </c>
+      <c r="M68" s="82">
+        <v>0</v>
+      </c>
+      <c r="N68" s="83">
+        <v>0</v>
+      </c>
       <c r="O68" s="83">
         <v>0</v>
       </c>
       <c r="P68" s="83">
         <v>0</v>
       </c>
-      <c r="Q68" s="83"/>
-      <c r="R68" s="82"/>
-      <c r="S68" s="83"/>
-      <c r="T68" s="83"/>
-      <c r="U68" s="82"/>
-      <c r="V68" s="83"/>
-      <c r="W68" s="96"/>
-      <c r="X68" s="126"/>
+      <c r="Q68" s="83">
+        <v>0</v>
+      </c>
+      <c r="R68" s="82">
+        <v>0</v>
+      </c>
+      <c r="S68" s="83">
+        <v>0</v>
+      </c>
+      <c r="T68" s="83">
+        <v>0</v>
+      </c>
+      <c r="U68" s="82">
+        <v>0</v>
+      </c>
+      <c r="V68" s="83">
+        <v>0</v>
+      </c>
+      <c r="W68" s="96">
+        <v>0</v>
+      </c>
+      <c r="X68" s="126">
+        <v>0</v>
+      </c>
       <c r="Y68" s="97">
         <v>1</v>
       </c>
@@ -5945,32 +6267,72 @@
         <v>90</v>
       </c>
       <c r="B71" s="76"/>
-      <c r="C71" s="79"/>
-      <c r="D71" s="79"/>
-      <c r="E71" s="79"/>
-      <c r="F71" s="79"/>
-      <c r="G71" s="79"/>
-      <c r="H71" s="80"/>
-      <c r="I71" s="81"/>
-      <c r="J71" s="81"/>
-      <c r="K71" s="81"/>
-      <c r="L71" s="81"/>
-      <c r="M71" s="82"/>
-      <c r="N71" s="83"/>
+      <c r="C71" s="79">
+        <v>1</v>
+      </c>
+      <c r="D71" s="79">
+        <v>0</v>
+      </c>
+      <c r="E71" s="79">
+        <v>0</v>
+      </c>
+      <c r="F71" s="79">
+        <v>0</v>
+      </c>
+      <c r="G71" s="79">
+        <v>0</v>
+      </c>
+      <c r="H71" s="80">
+        <v>0</v>
+      </c>
+      <c r="I71" s="81">
+        <v>0</v>
+      </c>
+      <c r="J71" s="81">
+        <v>0</v>
+      </c>
+      <c r="K71" s="81">
+        <v>0</v>
+      </c>
+      <c r="L71" s="81">
+        <v>0</v>
+      </c>
+      <c r="M71" s="82">
+        <v>0</v>
+      </c>
+      <c r="N71" s="83">
+        <v>0</v>
+      </c>
       <c r="O71" s="82">
         <v>0</v>
       </c>
       <c r="P71" s="84">
         <v>1</v>
       </c>
-      <c r="Q71" s="82"/>
-      <c r="R71" s="85"/>
-      <c r="S71" s="82"/>
-      <c r="T71" s="85"/>
-      <c r="U71" s="85"/>
-      <c r="V71" s="83"/>
-      <c r="W71" s="86"/>
-      <c r="X71" s="86"/>
+      <c r="Q71" s="82">
+        <v>1</v>
+      </c>
+      <c r="R71" s="85">
+        <v>0</v>
+      </c>
+      <c r="S71" s="82">
+        <v>0</v>
+      </c>
+      <c r="T71" s="85">
+        <v>0</v>
+      </c>
+      <c r="U71" s="85">
+        <v>0</v>
+      </c>
+      <c r="V71" s="83">
+        <v>0</v>
+      </c>
+      <c r="W71" s="86">
+        <v>0</v>
+      </c>
+      <c r="X71" s="86">
+        <v>0</v>
+      </c>
       <c r="Y71" s="110">
         <v>1</v>
       </c>
@@ -5991,7 +6353,7 @@
       </c>
       <c r="AH71" t="str">
         <f>_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(C71:F71), 1), BIN2HEX(_xlfn.CONCAT(G71:N71), 2), BIN2HEX(_xlfn.CONCAT(O71:V71), 2), BIN2HEX(_xlfn.CONCAT(W71:AD71), 2) )</f>
-        <v>0000125</v>
+        <v>8006025</v>
       </c>
     </row>
     <row r="72" spans="1:34" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -5999,32 +6361,72 @@
         <v>91</v>
       </c>
       <c r="B72" s="76"/>
-      <c r="C72" s="79"/>
-      <c r="D72" s="79"/>
-      <c r="E72" s="79"/>
-      <c r="F72" s="79"/>
-      <c r="G72" s="79"/>
-      <c r="H72" s="80"/>
-      <c r="I72" s="81"/>
-      <c r="J72" s="81"/>
-      <c r="K72" s="81"/>
-      <c r="L72" s="81"/>
-      <c r="M72" s="82"/>
-      <c r="N72" s="83"/>
+      <c r="C72" s="79">
+        <v>0</v>
+      </c>
+      <c r="D72" s="79">
+        <v>0</v>
+      </c>
+      <c r="E72" s="79">
+        <v>0</v>
+      </c>
+      <c r="F72" s="79">
+        <v>0</v>
+      </c>
+      <c r="G72" s="79">
+        <v>0</v>
+      </c>
+      <c r="H72" s="80">
+        <v>0</v>
+      </c>
+      <c r="I72" s="81">
+        <v>0</v>
+      </c>
+      <c r="J72" s="81">
+        <v>0</v>
+      </c>
+      <c r="K72" s="81">
+        <v>1</v>
+      </c>
+      <c r="L72" s="81">
+        <v>0</v>
+      </c>
+      <c r="M72" s="82">
+        <v>0</v>
+      </c>
+      <c r="N72" s="83">
+        <v>0</v>
+      </c>
       <c r="O72" s="82">
         <v>0</v>
       </c>
       <c r="P72" s="84">
         <v>0</v>
       </c>
-      <c r="Q72" s="82"/>
-      <c r="R72" s="85"/>
-      <c r="S72" s="82"/>
-      <c r="T72" s="85"/>
-      <c r="U72" s="85"/>
-      <c r="V72" s="83"/>
-      <c r="W72" s="86"/>
-      <c r="X72" s="86"/>
+      <c r="Q72" s="82">
+        <v>0</v>
+      </c>
+      <c r="R72" s="85">
+        <v>0</v>
+      </c>
+      <c r="S72" s="82">
+        <v>0</v>
+      </c>
+      <c r="T72" s="85">
+        <v>0</v>
+      </c>
+      <c r="U72" s="85">
+        <v>0</v>
+      </c>
+      <c r="V72" s="83">
+        <v>1</v>
+      </c>
+      <c r="W72" s="86">
+        <v>0</v>
+      </c>
+      <c r="X72" s="86">
+        <v>0</v>
+      </c>
       <c r="Y72" s="110">
         <v>1</v>
       </c>
@@ -6045,7 +6447,7 @@
       </c>
       <c r="AH72" t="str">
         <f t="shared" ref="AH72:AH75" si="5">_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(C72:F72), 1), BIN2HEX(_xlfn.CONCAT(G72:N72), 2), BIN2HEX(_xlfn.CONCAT(O72:V72), 2), BIN2HEX(_xlfn.CONCAT(W72:AD72), 2) )</f>
-        <v>0000026</v>
+        <v>0080126</v>
       </c>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.2">
@@ -6053,32 +6455,72 @@
         <v>92</v>
       </c>
       <c r="B73" s="76"/>
-      <c r="C73" s="79"/>
-      <c r="D73" s="79"/>
-      <c r="E73" s="79"/>
-      <c r="F73" s="79"/>
-      <c r="G73" s="79"/>
-      <c r="H73" s="80"/>
-      <c r="I73" s="81"/>
-      <c r="J73" s="81"/>
-      <c r="K73" s="81"/>
-      <c r="L73" s="81"/>
-      <c r="M73" s="82"/>
-      <c r="N73" s="83"/>
+      <c r="C73" s="79">
+        <v>0</v>
+      </c>
+      <c r="D73" s="79">
+        <v>1</v>
+      </c>
+      <c r="E73" s="79">
+        <v>0</v>
+      </c>
+      <c r="F73" s="79">
+        <v>0</v>
+      </c>
+      <c r="G73" s="79">
+        <v>0</v>
+      </c>
+      <c r="H73" s="80">
+        <v>0</v>
+      </c>
+      <c r="I73" s="81">
+        <v>0</v>
+      </c>
+      <c r="J73" s="81">
+        <v>0</v>
+      </c>
+      <c r="K73" s="81">
+        <v>0</v>
+      </c>
+      <c r="L73" s="81">
+        <v>0</v>
+      </c>
+      <c r="M73" s="82">
+        <v>0</v>
+      </c>
+      <c r="N73" s="83">
+        <v>0</v>
+      </c>
       <c r="O73" s="82">
         <v>0</v>
       </c>
       <c r="P73" s="84">
         <v>0</v>
       </c>
-      <c r="Q73" s="82"/>
-      <c r="R73" s="85"/>
-      <c r="S73" s="82"/>
-      <c r="T73" s="85"/>
-      <c r="U73" s="85"/>
-      <c r="V73" s="83"/>
-      <c r="W73" s="86"/>
-      <c r="X73" s="86"/>
+      <c r="Q73" s="82">
+        <v>0</v>
+      </c>
+      <c r="R73" s="85">
+        <v>0</v>
+      </c>
+      <c r="S73" s="82">
+        <v>0</v>
+      </c>
+      <c r="T73" s="85">
+        <v>0</v>
+      </c>
+      <c r="U73" s="85">
+        <v>0</v>
+      </c>
+      <c r="V73" s="83">
+        <v>0</v>
+      </c>
+      <c r="W73" s="86">
+        <v>1</v>
+      </c>
+      <c r="X73" s="86">
+        <v>0</v>
+      </c>
       <c r="Y73" s="110">
         <v>1</v>
       </c>
@@ -6099,7 +6541,7 @@
       </c>
       <c r="AH73" t="str">
         <f t="shared" si="5"/>
-        <v>0000027</v>
+        <v>40000A7</v>
       </c>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.2">
@@ -6107,32 +6549,72 @@
         <v>93</v>
       </c>
       <c r="B74" s="76"/>
-      <c r="C74" s="79"/>
-      <c r="D74" s="79"/>
-      <c r="E74" s="79"/>
-      <c r="F74" s="79"/>
-      <c r="G74" s="79"/>
-      <c r="H74" s="80"/>
-      <c r="I74" s="81"/>
-      <c r="J74" s="81"/>
-      <c r="K74" s="81"/>
-      <c r="L74" s="81"/>
-      <c r="M74" s="82"/>
-      <c r="N74" s="83"/>
+      <c r="C74" s="79">
+        <v>0</v>
+      </c>
+      <c r="D74" s="79">
+        <v>0</v>
+      </c>
+      <c r="E74" s="79">
+        <v>0</v>
+      </c>
+      <c r="F74" s="79">
+        <v>0</v>
+      </c>
+      <c r="G74" s="79">
+        <v>0</v>
+      </c>
+      <c r="H74" s="80">
+        <v>1</v>
+      </c>
+      <c r="I74" s="81">
+        <v>0</v>
+      </c>
+      <c r="J74" s="81">
+        <v>1</v>
+      </c>
+      <c r="K74" s="81">
+        <v>0</v>
+      </c>
+      <c r="L74" s="81">
+        <v>0</v>
+      </c>
+      <c r="M74" s="82">
+        <v>0</v>
+      </c>
+      <c r="N74" s="83">
+        <v>1</v>
+      </c>
       <c r="O74" s="82">
         <v>0</v>
       </c>
       <c r="P74" s="84">
         <v>0</v>
       </c>
-      <c r="Q74" s="82"/>
-      <c r="R74" s="85"/>
-      <c r="S74" s="82"/>
-      <c r="T74" s="85"/>
-      <c r="U74" s="85"/>
-      <c r="V74" s="83"/>
-      <c r="W74" s="86"/>
-      <c r="X74" s="86"/>
+      <c r="Q74" s="82">
+        <v>0</v>
+      </c>
+      <c r="R74" s="85">
+        <v>0</v>
+      </c>
+      <c r="S74" s="82">
+        <v>0</v>
+      </c>
+      <c r="T74" s="85">
+        <v>0</v>
+      </c>
+      <c r="U74" s="85">
+        <v>0</v>
+      </c>
+      <c r="V74" s="83">
+        <v>0</v>
+      </c>
+      <c r="W74" s="86">
+        <v>0</v>
+      </c>
+      <c r="X74" s="86">
+        <v>0</v>
+      </c>
       <c r="Y74" s="110">
         <v>1</v>
       </c>
@@ -6153,7 +6635,7 @@
       </c>
       <c r="AH74" t="str">
         <f t="shared" si="5"/>
-        <v>0000028</v>
+        <v>0510028</v>
       </c>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.2">
@@ -6161,32 +6643,72 @@
         <v>94</v>
       </c>
       <c r="B75" s="76"/>
-      <c r="C75" s="87"/>
-      <c r="D75" s="88"/>
-      <c r="E75" s="88"/>
-      <c r="F75" s="88"/>
-      <c r="G75" s="88"/>
-      <c r="H75" s="88"/>
-      <c r="I75" s="89"/>
-      <c r="J75" s="89"/>
-      <c r="K75" s="89"/>
-      <c r="L75" s="89"/>
-      <c r="M75" s="90"/>
-      <c r="N75" s="91"/>
+      <c r="C75" s="87">
+        <v>0</v>
+      </c>
+      <c r="D75" s="88">
+        <v>0</v>
+      </c>
+      <c r="E75" s="88">
+        <v>0</v>
+      </c>
+      <c r="F75" s="88">
+        <v>0</v>
+      </c>
+      <c r="G75" s="88">
+        <v>0</v>
+      </c>
+      <c r="H75" s="88">
+        <v>0</v>
+      </c>
+      <c r="I75" s="89">
+        <v>0</v>
+      </c>
+      <c r="J75" s="89">
+        <v>0</v>
+      </c>
+      <c r="K75" s="89">
+        <v>0</v>
+      </c>
+      <c r="L75" s="89">
+        <v>0</v>
+      </c>
+      <c r="M75" s="90">
+        <v>0</v>
+      </c>
+      <c r="N75" s="91">
+        <v>0</v>
+      </c>
       <c r="O75" s="91">
         <v>0</v>
       </c>
       <c r="P75" s="91">
         <v>0</v>
       </c>
-      <c r="Q75" s="91"/>
-      <c r="R75" s="90"/>
-      <c r="S75" s="91"/>
-      <c r="T75" s="91"/>
-      <c r="U75" s="90"/>
-      <c r="V75" s="91"/>
-      <c r="W75" s="92"/>
-      <c r="X75" s="92"/>
+      <c r="Q75" s="91">
+        <v>0</v>
+      </c>
+      <c r="R75" s="90">
+        <v>0</v>
+      </c>
+      <c r="S75" s="91">
+        <v>0</v>
+      </c>
+      <c r="T75" s="91">
+        <v>0</v>
+      </c>
+      <c r="U75" s="90">
+        <v>0</v>
+      </c>
+      <c r="V75" s="91">
+        <v>0</v>
+      </c>
+      <c r="W75" s="92">
+        <v>0</v>
+      </c>
+      <c r="X75" s="92">
+        <v>0</v>
+      </c>
       <c r="Y75" s="116">
         <v>1</v>
       </c>
@@ -7008,8 +7530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView topLeftCell="A46" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D64" sqref="D1:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7160,7 +7682,7 @@
       </c>
       <c r="D9" s="63" t="str">
         <f>IFERROR(VLOOKUP(C9,microcode!A$5:AH$90, 34, FALSE), 0)</f>
-        <v>0000125</v>
+        <v>8006025</v>
       </c>
       <c r="E9" t="s">
         <v>87</v>
@@ -7230,7 +7752,7 @@
       </c>
       <c r="D13" s="63" t="str">
         <f>IFERROR(VLOOKUP(C13,microcode!A$5:AH$90, 34, FALSE), 0)</f>
-        <v>000003F</v>
+        <v>049303F</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -7246,7 +7768,7 @@
       </c>
       <c r="D14" s="63" t="str">
         <f>IFERROR(VLOOKUP(C14,microcode!A$5:AH$90, 34, FALSE), 0)</f>
-        <v>0000129</v>
+        <v>8047029</v>
       </c>
       <c r="E14" t="s">
         <v>88</v>
@@ -7634,7 +8156,7 @@
       </c>
       <c r="D38" s="63" t="str">
         <f>IFERROR(VLOOKUP(C38,microcode!A$5:AH$90, 34, FALSE), 0)</f>
-        <v>0000026</v>
+        <v>0080126</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -7650,7 +8172,7 @@
       </c>
       <c r="D39" s="63" t="str">
         <f>IFERROR(VLOOKUP(C39,microcode!A$5:AH$90, 34, FALSE), 0)</f>
-        <v>0000027</v>
+        <v>40000A7</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -7666,7 +8188,7 @@
       </c>
       <c r="D40" s="63" t="str">
         <f>IFERROR(VLOOKUP(C40,microcode!A$5:AH$90, 34, FALSE), 0)</f>
-        <v>0000028</v>
+        <v>0510028</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -7698,7 +8220,7 @@
       </c>
       <c r="D42" s="63" t="str">
         <f>IFERROR(VLOOKUP(C42,microcode!A$5:AH$90, 34, FALSE), 0)</f>
-        <v>000002A</v>
+        <v>40000AA</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -7714,7 +8236,7 @@
       </c>
       <c r="D43" s="63" t="str">
         <f>IFERROR(VLOOKUP(C43,microcode!A$5:AH$90, 34, FALSE), 0)</f>
-        <v>000002B</v>
+        <v>810002B</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -7730,7 +8252,7 @@
       </c>
       <c r="D44" s="63" t="str">
         <f>IFERROR(VLOOKUP(C44,microcode!A$5:AH$90, 34, FALSE), 0)</f>
-        <v>000002C</v>
+        <v>40000AC</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -7746,7 +8268,7 @@
       </c>
       <c r="D45" s="63" t="str">
         <f>IFERROR(VLOOKUP(C45,microcode!A$5:AH$90, 34, FALSE), 0)</f>
-        <v>000002D</v>
+        <v>810002D</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -7762,7 +8284,7 @@
       </c>
       <c r="D46" s="63" t="str">
         <f>IFERROR(VLOOKUP(C46,microcode!A$5:AH$90, 34, FALSE), 0)</f>
-        <v>000002E</v>
+        <v>00800EE</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">

--- a/Spring_25/CS2110/hw03/microcode.xlsx
+++ b/Spring_25/CS2110/hw03/microcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasstone/Documents/Georgia_Tech/Spring_25/CS2110/hw03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE846AE3-2BF5-B84B-AB7A-13D696EF4B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD66904-B0CE-9945-A24D-76B704BE7043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="15000" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1473,9 +1473,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BW88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X75" sqref="X75"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N62" sqref="C62:N62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5543,72 +5543,32 @@
         <v>78</v>
       </c>
       <c r="B62" s="76"/>
-      <c r="C62" s="93">
-        <v>1</v>
-      </c>
-      <c r="D62" s="94">
-        <v>0</v>
-      </c>
-      <c r="E62" s="94">
-        <v>0</v>
-      </c>
-      <c r="F62" s="94">
-        <v>0</v>
-      </c>
-      <c r="G62" s="94">
-        <v>0</v>
-      </c>
-      <c r="H62" s="94">
-        <v>0</v>
-      </c>
-      <c r="I62" s="95">
-        <v>0</v>
-      </c>
-      <c r="J62" s="95">
-        <v>0</v>
-      </c>
-      <c r="K62" s="95">
-        <v>0</v>
-      </c>
-      <c r="L62" s="95">
-        <v>1</v>
-      </c>
-      <c r="M62" s="82">
-        <v>0</v>
-      </c>
-      <c r="N62" s="83">
-        <v>0</v>
-      </c>
+      <c r="C62" s="93"/>
+      <c r="D62" s="94"/>
+      <c r="E62" s="94"/>
+      <c r="F62" s="94"/>
+      <c r="G62" s="94"/>
+      <c r="H62" s="94"/>
+      <c r="I62" s="95"/>
+      <c r="J62" s="95"/>
+      <c r="K62" s="95"/>
+      <c r="L62" s="95"/>
+      <c r="M62" s="82"/>
+      <c r="N62" s="83"/>
       <c r="O62" s="83">
         <v>0</v>
       </c>
       <c r="P62" s="83">
         <v>1</v>
       </c>
-      <c r="Q62" s="83">
-        <v>1</v>
-      </c>
-      <c r="R62" s="82">
-        <v>1</v>
-      </c>
-      <c r="S62" s="83">
-        <v>0</v>
-      </c>
-      <c r="T62" s="83">
-        <v>0</v>
-      </c>
-      <c r="U62" s="82">
-        <v>0</v>
-      </c>
-      <c r="V62" s="83">
-        <v>0</v>
-      </c>
-      <c r="W62" s="96">
-        <v>0</v>
-      </c>
-      <c r="X62" s="96">
-        <v>0</v>
-      </c>
+      <c r="Q62" s="83"/>
+      <c r="R62" s="82"/>
+      <c r="S62" s="83"/>
+      <c r="T62" s="83"/>
+      <c r="U62" s="82"/>
+      <c r="V62" s="83"/>
+      <c r="W62" s="96"/>
+      <c r="X62" s="96"/>
       <c r="Y62" s="110">
         <v>1</v>
       </c>
@@ -5629,7 +5589,7 @@
       </c>
       <c r="AH62" t="str">
         <f t="shared" ref="AH62:AH68" si="4">_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(C62:F62), 1), BIN2HEX(_xlfn.CONCAT(G62:N62), 2), BIN2HEX(_xlfn.CONCAT(O62:V62), 2), BIN2HEX(_xlfn.CONCAT(W62:AD62), 2) )</f>
-        <v>8047029</v>
+        <v>0000129</v>
       </c>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.2">
@@ -5637,72 +5597,32 @@
         <v>79</v>
       </c>
       <c r="B63" s="76"/>
-      <c r="C63" s="93">
-        <v>0</v>
-      </c>
-      <c r="D63" s="94">
-        <v>1</v>
-      </c>
-      <c r="E63" s="94">
-        <v>0</v>
-      </c>
-      <c r="F63" s="94">
-        <v>0</v>
-      </c>
-      <c r="G63" s="94">
-        <v>0</v>
-      </c>
-      <c r="H63" s="94">
-        <v>0</v>
-      </c>
-      <c r="I63" s="95">
-        <v>0</v>
-      </c>
-      <c r="J63" s="95">
-        <v>0</v>
-      </c>
-      <c r="K63" s="95">
-        <v>0</v>
-      </c>
-      <c r="L63" s="95">
-        <v>0</v>
-      </c>
-      <c r="M63" s="82">
-        <v>0</v>
-      </c>
-      <c r="N63" s="83">
-        <v>0</v>
-      </c>
+      <c r="C63" s="93"/>
+      <c r="D63" s="94"/>
+      <c r="E63" s="94"/>
+      <c r="F63" s="94"/>
+      <c r="G63" s="94"/>
+      <c r="H63" s="94"/>
+      <c r="I63" s="95"/>
+      <c r="J63" s="95"/>
+      <c r="K63" s="95"/>
+      <c r="L63" s="95"/>
+      <c r="M63" s="82"/>
+      <c r="N63" s="83"/>
       <c r="O63" s="83">
         <v>0</v>
       </c>
       <c r="P63" s="83">
         <v>0</v>
       </c>
-      <c r="Q63" s="83">
-        <v>0</v>
-      </c>
-      <c r="R63" s="82">
-        <v>0</v>
-      </c>
-      <c r="S63" s="83">
-        <v>0</v>
-      </c>
-      <c r="T63" s="83">
-        <v>0</v>
-      </c>
-      <c r="U63" s="82">
-        <v>0</v>
-      </c>
-      <c r="V63" s="83">
-        <v>0</v>
-      </c>
-      <c r="W63" s="96">
-        <v>1</v>
-      </c>
-      <c r="X63" s="96">
-        <v>0</v>
-      </c>
+      <c r="Q63" s="83"/>
+      <c r="R63" s="82"/>
+      <c r="S63" s="83"/>
+      <c r="T63" s="83"/>
+      <c r="U63" s="82"/>
+      <c r="V63" s="83"/>
+      <c r="W63" s="96"/>
+      <c r="X63" s="96"/>
       <c r="Y63" s="110">
         <v>1</v>
       </c>
@@ -5723,7 +5643,7 @@
       </c>
       <c r="AH63" t="str">
         <f t="shared" si="4"/>
-        <v>40000AA</v>
+        <v>000002A</v>
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.2">
@@ -5731,72 +5651,32 @@
         <v>80</v>
       </c>
       <c r="B64" s="76"/>
-      <c r="C64" s="93">
-        <v>1</v>
-      </c>
-      <c r="D64" s="94">
-        <v>0</v>
-      </c>
-      <c r="E64" s="94">
-        <v>0</v>
-      </c>
-      <c r="F64" s="94">
-        <v>0</v>
-      </c>
-      <c r="G64" s="94">
-        <v>0</v>
-      </c>
-      <c r="H64" s="94">
-        <v>0</v>
-      </c>
-      <c r="I64" s="95">
-        <v>0</v>
-      </c>
-      <c r="J64" s="95">
-        <v>1</v>
-      </c>
-      <c r="K64" s="95">
-        <v>0</v>
-      </c>
-      <c r="L64" s="95">
-        <v>0</v>
-      </c>
-      <c r="M64" s="82">
-        <v>0</v>
-      </c>
-      <c r="N64" s="83">
-        <v>0</v>
-      </c>
+      <c r="C64" s="93"/>
+      <c r="D64" s="94"/>
+      <c r="E64" s="94"/>
+      <c r="F64" s="94"/>
+      <c r="G64" s="94"/>
+      <c r="H64" s="94"/>
+      <c r="I64" s="95"/>
+      <c r="J64" s="95"/>
+      <c r="K64" s="95"/>
+      <c r="L64" s="95"/>
+      <c r="M64" s="82"/>
+      <c r="N64" s="83"/>
       <c r="O64" s="83">
         <v>0</v>
       </c>
       <c r="P64" s="83">
         <v>0</v>
       </c>
-      <c r="Q64" s="83">
-        <v>0</v>
-      </c>
-      <c r="R64" s="82">
-        <v>0</v>
-      </c>
-      <c r="S64" s="83">
-        <v>0</v>
-      </c>
-      <c r="T64" s="83">
-        <v>0</v>
-      </c>
-      <c r="U64" s="82">
-        <v>0</v>
-      </c>
-      <c r="V64" s="83">
-        <v>0</v>
-      </c>
-      <c r="W64" s="96">
-        <v>0</v>
-      </c>
-      <c r="X64" s="96">
-        <v>0</v>
-      </c>
+      <c r="Q64" s="83"/>
+      <c r="R64" s="82"/>
+      <c r="S64" s="83"/>
+      <c r="T64" s="83"/>
+      <c r="U64" s="82"/>
+      <c r="V64" s="83"/>
+      <c r="W64" s="96"/>
+      <c r="X64" s="96"/>
       <c r="Y64" s="110">
         <v>1</v>
       </c>
@@ -5817,7 +5697,7 @@
       </c>
       <c r="AH64" t="str">
         <f t="shared" si="4"/>
-        <v>810002B</v>
+        <v>000002B</v>
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.2">
@@ -5825,72 +5705,32 @@
         <v>81</v>
       </c>
       <c r="B65" s="130"/>
-      <c r="C65" s="93">
-        <v>0</v>
-      </c>
-      <c r="D65" s="93">
-        <v>1</v>
-      </c>
-      <c r="E65" s="93">
-        <v>0</v>
-      </c>
-      <c r="F65" s="93">
-        <v>0</v>
-      </c>
-      <c r="G65" s="93">
-        <v>0</v>
-      </c>
-      <c r="H65" s="93">
-        <v>0</v>
-      </c>
-      <c r="I65" s="81">
-        <v>0</v>
-      </c>
-      <c r="J65" s="81">
-        <v>0</v>
-      </c>
-      <c r="K65" s="81">
-        <v>0</v>
-      </c>
-      <c r="L65" s="81">
-        <v>0</v>
-      </c>
-      <c r="M65" s="85">
-        <v>0</v>
-      </c>
-      <c r="N65" s="83">
-        <v>0</v>
-      </c>
+      <c r="C65" s="93"/>
+      <c r="D65" s="93"/>
+      <c r="E65" s="93"/>
+      <c r="F65" s="93"/>
+      <c r="G65" s="93"/>
+      <c r="H65" s="93"/>
+      <c r="I65" s="81"/>
+      <c r="J65" s="81"/>
+      <c r="K65" s="81"/>
+      <c r="L65" s="81"/>
+      <c r="M65" s="85"/>
+      <c r="N65" s="83"/>
       <c r="O65" s="84">
         <v>0</v>
       </c>
       <c r="P65" s="84">
         <v>0</v>
       </c>
-      <c r="Q65" s="84">
-        <v>0</v>
-      </c>
-      <c r="R65" s="85">
-        <v>0</v>
-      </c>
-      <c r="S65" s="83">
-        <v>0</v>
-      </c>
-      <c r="T65" s="84">
-        <v>0</v>
-      </c>
-      <c r="U65" s="85">
-        <v>0</v>
-      </c>
-      <c r="V65" s="83">
-        <v>0</v>
-      </c>
-      <c r="W65" s="109">
-        <v>1</v>
-      </c>
-      <c r="X65" s="109">
-        <v>0</v>
-      </c>
+      <c r="Q65" s="84"/>
+      <c r="R65" s="85"/>
+      <c r="S65" s="83"/>
+      <c r="T65" s="84"/>
+      <c r="U65" s="85"/>
+      <c r="V65" s="83"/>
+      <c r="W65" s="109"/>
+      <c r="X65" s="109"/>
       <c r="Y65" s="97">
         <v>1</v>
       </c>
@@ -5911,7 +5751,7 @@
       </c>
       <c r="AH65" t="str">
         <f t="shared" si="4"/>
-        <v>40000AC</v>
+        <v>000002C</v>
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.2">
@@ -5919,72 +5759,32 @@
         <v>82</v>
       </c>
       <c r="B66" s="76"/>
-      <c r="C66" s="93">
-        <v>1</v>
-      </c>
-      <c r="D66" s="94">
-        <v>0</v>
-      </c>
-      <c r="E66" s="94">
-        <v>0</v>
-      </c>
-      <c r="F66" s="94">
-        <v>0</v>
-      </c>
-      <c r="G66" s="94">
-        <v>0</v>
-      </c>
-      <c r="H66" s="94">
-        <v>0</v>
-      </c>
-      <c r="I66" s="95">
-        <v>0</v>
-      </c>
-      <c r="J66" s="95">
-        <v>1</v>
-      </c>
-      <c r="K66" s="95">
-        <v>0</v>
-      </c>
-      <c r="L66" s="95">
-        <v>0</v>
-      </c>
-      <c r="M66" s="82">
-        <v>0</v>
-      </c>
-      <c r="N66" s="83">
-        <v>0</v>
-      </c>
+      <c r="C66" s="93"/>
+      <c r="D66" s="94"/>
+      <c r="E66" s="94"/>
+      <c r="F66" s="94"/>
+      <c r="G66" s="94"/>
+      <c r="H66" s="94"/>
+      <c r="I66" s="95"/>
+      <c r="J66" s="95"/>
+      <c r="K66" s="95"/>
+      <c r="L66" s="95"/>
+      <c r="M66" s="82"/>
+      <c r="N66" s="83"/>
       <c r="O66" s="83">
         <v>0</v>
       </c>
       <c r="P66" s="83">
         <v>0</v>
       </c>
-      <c r="Q66" s="83">
-        <v>0</v>
-      </c>
-      <c r="R66" s="82">
-        <v>0</v>
-      </c>
-      <c r="S66" s="83">
-        <v>0</v>
-      </c>
-      <c r="T66" s="83">
-        <v>0</v>
-      </c>
-      <c r="U66" s="82">
-        <v>0</v>
-      </c>
-      <c r="V66" s="83">
-        <v>0</v>
-      </c>
-      <c r="W66" s="96">
-        <v>0</v>
-      </c>
-      <c r="X66" s="126">
-        <v>0</v>
-      </c>
+      <c r="Q66" s="83"/>
+      <c r="R66" s="82"/>
+      <c r="S66" s="83"/>
+      <c r="T66" s="83"/>
+      <c r="U66" s="82"/>
+      <c r="V66" s="83"/>
+      <c r="W66" s="96"/>
+      <c r="X66" s="126"/>
       <c r="Y66" s="97">
         <v>1</v>
       </c>
@@ -6005,7 +5805,7 @@
       </c>
       <c r="AH66" t="str">
         <f t="shared" si="4"/>
-        <v>810002D</v>
+        <v>000002D</v>
       </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.2">
@@ -6013,72 +5813,32 @@
         <v>83</v>
       </c>
       <c r="B67" s="76"/>
-      <c r="C67" s="93">
-        <v>0</v>
-      </c>
-      <c r="D67" s="94">
-        <v>0</v>
-      </c>
-      <c r="E67" s="94">
-        <v>0</v>
-      </c>
-      <c r="F67" s="94">
-        <v>0</v>
-      </c>
-      <c r="G67" s="94">
-        <v>0</v>
-      </c>
-      <c r="H67" s="94">
-        <v>0</v>
-      </c>
-      <c r="I67" s="95">
-        <v>0</v>
-      </c>
-      <c r="J67" s="95">
-        <v>0</v>
-      </c>
-      <c r="K67" s="95">
-        <v>1</v>
-      </c>
-      <c r="L67" s="95">
-        <v>0</v>
-      </c>
-      <c r="M67" s="82">
-        <v>0</v>
-      </c>
-      <c r="N67" s="83">
-        <v>0</v>
-      </c>
+      <c r="C67" s="93"/>
+      <c r="D67" s="94"/>
+      <c r="E67" s="94"/>
+      <c r="F67" s="94"/>
+      <c r="G67" s="94"/>
+      <c r="H67" s="94"/>
+      <c r="I67" s="95"/>
+      <c r="J67" s="95"/>
+      <c r="K67" s="95"/>
+      <c r="L67" s="95"/>
+      <c r="M67" s="82"/>
+      <c r="N67" s="83"/>
       <c r="O67" s="83">
         <v>0</v>
       </c>
       <c r="P67" s="83">
         <v>0</v>
       </c>
-      <c r="Q67" s="83">
-        <v>0</v>
-      </c>
-      <c r="R67" s="82">
-        <v>0</v>
-      </c>
-      <c r="S67" s="83">
-        <v>0</v>
-      </c>
-      <c r="T67" s="83">
-        <v>0</v>
-      </c>
-      <c r="U67" s="82">
-        <v>0</v>
-      </c>
-      <c r="V67" s="83">
-        <v>0</v>
-      </c>
-      <c r="W67" s="96">
-        <v>1</v>
-      </c>
-      <c r="X67" s="126">
-        <v>1</v>
-      </c>
+      <c r="Q67" s="83"/>
+      <c r="R67" s="82"/>
+      <c r="S67" s="83"/>
+      <c r="T67" s="83"/>
+      <c r="U67" s="82"/>
+      <c r="V67" s="83"/>
+      <c r="W67" s="96"/>
+      <c r="X67" s="126"/>
       <c r="Y67" s="97">
         <v>1</v>
       </c>
@@ -6099,7 +5859,7 @@
       </c>
       <c r="AH67" t="str">
         <f t="shared" si="4"/>
-        <v>00800EE</v>
+        <v>000002E</v>
       </c>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.2">
@@ -6107,72 +5867,32 @@
         <v>84</v>
       </c>
       <c r="B68" s="76"/>
-      <c r="C68" s="93">
-        <v>0</v>
-      </c>
-      <c r="D68" s="94">
-        <v>0</v>
-      </c>
-      <c r="E68" s="94">
-        <v>0</v>
-      </c>
-      <c r="F68" s="94">
-        <v>0</v>
-      </c>
-      <c r="G68" s="94">
-        <v>0</v>
-      </c>
-      <c r="H68" s="94">
-        <v>0</v>
-      </c>
-      <c r="I68" s="95">
-        <v>0</v>
-      </c>
-      <c r="J68" s="95">
-        <v>0</v>
-      </c>
-      <c r="K68" s="95">
-        <v>0</v>
-      </c>
-      <c r="L68" s="95">
-        <v>0</v>
-      </c>
-      <c r="M68" s="82">
-        <v>0</v>
-      </c>
-      <c r="N68" s="83">
-        <v>0</v>
-      </c>
+      <c r="C68" s="93"/>
+      <c r="D68" s="94"/>
+      <c r="E68" s="94"/>
+      <c r="F68" s="94"/>
+      <c r="G68" s="94"/>
+      <c r="H68" s="94"/>
+      <c r="I68" s="95"/>
+      <c r="J68" s="95"/>
+      <c r="K68" s="95"/>
+      <c r="L68" s="95"/>
+      <c r="M68" s="82"/>
+      <c r="N68" s="83"/>
       <c r="O68" s="83">
         <v>0</v>
       </c>
       <c r="P68" s="83">
         <v>0</v>
       </c>
-      <c r="Q68" s="83">
-        <v>0</v>
-      </c>
-      <c r="R68" s="82">
-        <v>0</v>
-      </c>
-      <c r="S68" s="83">
-        <v>0</v>
-      </c>
-      <c r="T68" s="83">
-        <v>0</v>
-      </c>
-      <c r="U68" s="82">
-        <v>0</v>
-      </c>
-      <c r="V68" s="83">
-        <v>0</v>
-      </c>
-      <c r="W68" s="96">
-        <v>0</v>
-      </c>
-      <c r="X68" s="126">
-        <v>0</v>
-      </c>
+      <c r="Q68" s="83"/>
+      <c r="R68" s="82"/>
+      <c r="S68" s="83"/>
+      <c r="T68" s="83"/>
+      <c r="U68" s="82"/>
+      <c r="V68" s="83"/>
+      <c r="W68" s="96"/>
+      <c r="X68" s="126"/>
       <c r="Y68" s="97">
         <v>1</v>
       </c>
@@ -6267,72 +5987,32 @@
         <v>90</v>
       </c>
       <c r="B71" s="76"/>
-      <c r="C71" s="79">
-        <v>1</v>
-      </c>
-      <c r="D71" s="79">
-        <v>0</v>
-      </c>
-      <c r="E71" s="79">
-        <v>0</v>
-      </c>
-      <c r="F71" s="79">
-        <v>0</v>
-      </c>
-      <c r="G71" s="79">
-        <v>0</v>
-      </c>
-      <c r="H71" s="80">
-        <v>0</v>
-      </c>
-      <c r="I71" s="81">
-        <v>0</v>
-      </c>
-      <c r="J71" s="81">
-        <v>0</v>
-      </c>
-      <c r="K71" s="81">
-        <v>0</v>
-      </c>
-      <c r="L71" s="81">
-        <v>0</v>
-      </c>
-      <c r="M71" s="82">
-        <v>0</v>
-      </c>
-      <c r="N71" s="83">
-        <v>0</v>
-      </c>
+      <c r="C71" s="79"/>
+      <c r="D71" s="79"/>
+      <c r="E71" s="79"/>
+      <c r="F71" s="79"/>
+      <c r="G71" s="79"/>
+      <c r="H71" s="80"/>
+      <c r="I71" s="81"/>
+      <c r="J71" s="81"/>
+      <c r="K71" s="81"/>
+      <c r="L71" s="81"/>
+      <c r="M71" s="82"/>
+      <c r="N71" s="83"/>
       <c r="O71" s="82">
         <v>0</v>
       </c>
       <c r="P71" s="84">
         <v>1</v>
       </c>
-      <c r="Q71" s="82">
-        <v>1</v>
-      </c>
-      <c r="R71" s="85">
-        <v>0</v>
-      </c>
-      <c r="S71" s="82">
-        <v>0</v>
-      </c>
-      <c r="T71" s="85">
-        <v>0</v>
-      </c>
-      <c r="U71" s="85">
-        <v>0</v>
-      </c>
-      <c r="V71" s="83">
-        <v>0</v>
-      </c>
-      <c r="W71" s="86">
-        <v>0</v>
-      </c>
-      <c r="X71" s="86">
-        <v>0</v>
-      </c>
+      <c r="Q71" s="82"/>
+      <c r="R71" s="85"/>
+      <c r="S71" s="82"/>
+      <c r="T71" s="85"/>
+      <c r="U71" s="85"/>
+      <c r="V71" s="83"/>
+      <c r="W71" s="86"/>
+      <c r="X71" s="86"/>
       <c r="Y71" s="110">
         <v>1</v>
       </c>
@@ -6353,7 +6033,7 @@
       </c>
       <c r="AH71" t="str">
         <f>_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(C71:F71), 1), BIN2HEX(_xlfn.CONCAT(G71:N71), 2), BIN2HEX(_xlfn.CONCAT(O71:V71), 2), BIN2HEX(_xlfn.CONCAT(W71:AD71), 2) )</f>
-        <v>8006025</v>
+        <v>0000125</v>
       </c>
     </row>
     <row r="72" spans="1:34" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6361,72 +6041,32 @@
         <v>91</v>
       </c>
       <c r="B72" s="76"/>
-      <c r="C72" s="79">
-        <v>0</v>
-      </c>
-      <c r="D72" s="79">
-        <v>0</v>
-      </c>
-      <c r="E72" s="79">
-        <v>0</v>
-      </c>
-      <c r="F72" s="79">
-        <v>0</v>
-      </c>
-      <c r="G72" s="79">
-        <v>0</v>
-      </c>
-      <c r="H72" s="80">
-        <v>0</v>
-      </c>
-      <c r="I72" s="81">
-        <v>0</v>
-      </c>
-      <c r="J72" s="81">
-        <v>0</v>
-      </c>
-      <c r="K72" s="81">
-        <v>1</v>
-      </c>
-      <c r="L72" s="81">
-        <v>0</v>
-      </c>
-      <c r="M72" s="82">
-        <v>0</v>
-      </c>
-      <c r="N72" s="83">
-        <v>0</v>
-      </c>
+      <c r="C72" s="79"/>
+      <c r="D72" s="79"/>
+      <c r="E72" s="79"/>
+      <c r="F72" s="79"/>
+      <c r="G72" s="79"/>
+      <c r="H72" s="80"/>
+      <c r="I72" s="81"/>
+      <c r="J72" s="81"/>
+      <c r="K72" s="81"/>
+      <c r="L72" s="81"/>
+      <c r="M72" s="82"/>
+      <c r="N72" s="83"/>
       <c r="O72" s="82">
         <v>0</v>
       </c>
       <c r="P72" s="84">
         <v>0</v>
       </c>
-      <c r="Q72" s="82">
-        <v>0</v>
-      </c>
-      <c r="R72" s="85">
-        <v>0</v>
-      </c>
-      <c r="S72" s="82">
-        <v>0</v>
-      </c>
-      <c r="T72" s="85">
-        <v>0</v>
-      </c>
-      <c r="U72" s="85">
-        <v>0</v>
-      </c>
-      <c r="V72" s="83">
-        <v>1</v>
-      </c>
-      <c r="W72" s="86">
-        <v>0</v>
-      </c>
-      <c r="X72" s="86">
-        <v>0</v>
-      </c>
+      <c r="Q72" s="82"/>
+      <c r="R72" s="85"/>
+      <c r="S72" s="82"/>
+      <c r="T72" s="85"/>
+      <c r="U72" s="85"/>
+      <c r="V72" s="83"/>
+      <c r="W72" s="86"/>
+      <c r="X72" s="86"/>
       <c r="Y72" s="110">
         <v>1</v>
       </c>
@@ -6447,7 +6087,7 @@
       </c>
       <c r="AH72" t="str">
         <f t="shared" ref="AH72:AH75" si="5">_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(C72:F72), 1), BIN2HEX(_xlfn.CONCAT(G72:N72), 2), BIN2HEX(_xlfn.CONCAT(O72:V72), 2), BIN2HEX(_xlfn.CONCAT(W72:AD72), 2) )</f>
-        <v>0080126</v>
+        <v>0000026</v>
       </c>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.2">
@@ -6455,72 +6095,32 @@
         <v>92</v>
       </c>
       <c r="B73" s="76"/>
-      <c r="C73" s="79">
-        <v>0</v>
-      </c>
-      <c r="D73" s="79">
-        <v>1</v>
-      </c>
-      <c r="E73" s="79">
-        <v>0</v>
-      </c>
-      <c r="F73" s="79">
-        <v>0</v>
-      </c>
-      <c r="G73" s="79">
-        <v>0</v>
-      </c>
-      <c r="H73" s="80">
-        <v>0</v>
-      </c>
-      <c r="I73" s="81">
-        <v>0</v>
-      </c>
-      <c r="J73" s="81">
-        <v>0</v>
-      </c>
-      <c r="K73" s="81">
-        <v>0</v>
-      </c>
-      <c r="L73" s="81">
-        <v>0</v>
-      </c>
-      <c r="M73" s="82">
-        <v>0</v>
-      </c>
-      <c r="N73" s="83">
-        <v>0</v>
-      </c>
+      <c r="C73" s="79"/>
+      <c r="D73" s="79"/>
+      <c r="E73" s="79"/>
+      <c r="F73" s="79"/>
+      <c r="G73" s="79"/>
+      <c r="H73" s="80"/>
+      <c r="I73" s="81"/>
+      <c r="J73" s="81"/>
+      <c r="K73" s="81"/>
+      <c r="L73" s="81"/>
+      <c r="M73" s="82"/>
+      <c r="N73" s="83"/>
       <c r="O73" s="82">
         <v>0</v>
       </c>
       <c r="P73" s="84">
         <v>0</v>
       </c>
-      <c r="Q73" s="82">
-        <v>0</v>
-      </c>
-      <c r="R73" s="85">
-        <v>0</v>
-      </c>
-      <c r="S73" s="82">
-        <v>0</v>
-      </c>
-      <c r="T73" s="85">
-        <v>0</v>
-      </c>
-      <c r="U73" s="85">
-        <v>0</v>
-      </c>
-      <c r="V73" s="83">
-        <v>0</v>
-      </c>
-      <c r="W73" s="86">
-        <v>1</v>
-      </c>
-      <c r="X73" s="86">
-        <v>0</v>
-      </c>
+      <c r="Q73" s="82"/>
+      <c r="R73" s="85"/>
+      <c r="S73" s="82"/>
+      <c r="T73" s="85"/>
+      <c r="U73" s="85"/>
+      <c r="V73" s="83"/>
+      <c r="W73" s="86"/>
+      <c r="X73" s="86"/>
       <c r="Y73" s="110">
         <v>1</v>
       </c>
@@ -6541,7 +6141,7 @@
       </c>
       <c r="AH73" t="str">
         <f t="shared" si="5"/>
-        <v>40000A7</v>
+        <v>0000027</v>
       </c>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.2">
@@ -6549,72 +6149,32 @@
         <v>93</v>
       </c>
       <c r="B74" s="76"/>
-      <c r="C74" s="79">
-        <v>0</v>
-      </c>
-      <c r="D74" s="79">
-        <v>0</v>
-      </c>
-      <c r="E74" s="79">
-        <v>0</v>
-      </c>
-      <c r="F74" s="79">
-        <v>0</v>
-      </c>
-      <c r="G74" s="79">
-        <v>0</v>
-      </c>
-      <c r="H74" s="80">
-        <v>1</v>
-      </c>
-      <c r="I74" s="81">
-        <v>0</v>
-      </c>
-      <c r="J74" s="81">
-        <v>1</v>
-      </c>
-      <c r="K74" s="81">
-        <v>0</v>
-      </c>
-      <c r="L74" s="81">
-        <v>0</v>
-      </c>
-      <c r="M74" s="82">
-        <v>0</v>
-      </c>
-      <c r="N74" s="83">
-        <v>1</v>
-      </c>
+      <c r="C74" s="79"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="79"/>
+      <c r="F74" s="79"/>
+      <c r="G74" s="79"/>
+      <c r="H74" s="80"/>
+      <c r="I74" s="81"/>
+      <c r="J74" s="81"/>
+      <c r="K74" s="81"/>
+      <c r="L74" s="81"/>
+      <c r="M74" s="82"/>
+      <c r="N74" s="83"/>
       <c r="O74" s="82">
         <v>0</v>
       </c>
       <c r="P74" s="84">
         <v>0</v>
       </c>
-      <c r="Q74" s="82">
-        <v>0</v>
-      </c>
-      <c r="R74" s="85">
-        <v>0</v>
-      </c>
-      <c r="S74" s="82">
-        <v>0</v>
-      </c>
-      <c r="T74" s="85">
-        <v>0</v>
-      </c>
-      <c r="U74" s="85">
-        <v>0</v>
-      </c>
-      <c r="V74" s="83">
-        <v>0</v>
-      </c>
-      <c r="W74" s="86">
-        <v>0</v>
-      </c>
-      <c r="X74" s="86">
-        <v>0</v>
-      </c>
+      <c r="Q74" s="82"/>
+      <c r="R74" s="85"/>
+      <c r="S74" s="82"/>
+      <c r="T74" s="85"/>
+      <c r="U74" s="85"/>
+      <c r="V74" s="83"/>
+      <c r="W74" s="86"/>
+      <c r="X74" s="86"/>
       <c r="Y74" s="110">
         <v>1</v>
       </c>
@@ -6635,7 +6195,7 @@
       </c>
       <c r="AH74" t="str">
         <f t="shared" si="5"/>
-        <v>0510028</v>
+        <v>0000028</v>
       </c>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.2">
@@ -6643,72 +6203,32 @@
         <v>94</v>
       </c>
       <c r="B75" s="76"/>
-      <c r="C75" s="87">
-        <v>0</v>
-      </c>
-      <c r="D75" s="88">
-        <v>0</v>
-      </c>
-      <c r="E75" s="88">
-        <v>0</v>
-      </c>
-      <c r="F75" s="88">
-        <v>0</v>
-      </c>
-      <c r="G75" s="88">
-        <v>0</v>
-      </c>
-      <c r="H75" s="88">
-        <v>0</v>
-      </c>
-      <c r="I75" s="89">
-        <v>0</v>
-      </c>
-      <c r="J75" s="89">
-        <v>0</v>
-      </c>
-      <c r="K75" s="89">
-        <v>0</v>
-      </c>
-      <c r="L75" s="89">
-        <v>0</v>
-      </c>
-      <c r="M75" s="90">
-        <v>0</v>
-      </c>
-      <c r="N75" s="91">
-        <v>0</v>
-      </c>
+      <c r="C75" s="87"/>
+      <c r="D75" s="88"/>
+      <c r="E75" s="88"/>
+      <c r="F75" s="88"/>
+      <c r="G75" s="88"/>
+      <c r="H75" s="88"/>
+      <c r="I75" s="89"/>
+      <c r="J75" s="89"/>
+      <c r="K75" s="89"/>
+      <c r="L75" s="89"/>
+      <c r="M75" s="90"/>
+      <c r="N75" s="91"/>
       <c r="O75" s="91">
         <v>0</v>
       </c>
       <c r="P75" s="91">
         <v>0</v>
       </c>
-      <c r="Q75" s="91">
-        <v>0</v>
-      </c>
-      <c r="R75" s="90">
-        <v>0</v>
-      </c>
-      <c r="S75" s="91">
-        <v>0</v>
-      </c>
-      <c r="T75" s="91">
-        <v>0</v>
-      </c>
-      <c r="U75" s="90">
-        <v>0</v>
-      </c>
-      <c r="V75" s="91">
-        <v>0</v>
-      </c>
-      <c r="W75" s="92">
-        <v>0</v>
-      </c>
-      <c r="X75" s="92">
-        <v>0</v>
-      </c>
+      <c r="Q75" s="91"/>
+      <c r="R75" s="90"/>
+      <c r="S75" s="91"/>
+      <c r="T75" s="91"/>
+      <c r="U75" s="90"/>
+      <c r="V75" s="91"/>
+      <c r="W75" s="92"/>
+      <c r="X75" s="92"/>
       <c r="Y75" s="116">
         <v>1</v>
       </c>
@@ -7682,7 +7202,7 @@
       </c>
       <c r="D9" s="63" t="str">
         <f>IFERROR(VLOOKUP(C9,microcode!A$5:AH$90, 34, FALSE), 0)</f>
-        <v>8006025</v>
+        <v>0000125</v>
       </c>
       <c r="E9" t="s">
         <v>87</v>
@@ -7768,7 +7288,7 @@
       </c>
       <c r="D14" s="63" t="str">
         <f>IFERROR(VLOOKUP(C14,microcode!A$5:AH$90, 34, FALSE), 0)</f>
-        <v>8047029</v>
+        <v>0000129</v>
       </c>
       <c r="E14" t="s">
         <v>88</v>
@@ -8156,7 +7676,7 @@
       </c>
       <c r="D38" s="63" t="str">
         <f>IFERROR(VLOOKUP(C38,microcode!A$5:AH$90, 34, FALSE), 0)</f>
-        <v>0080126</v>
+        <v>0000026</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -8172,7 +7692,7 @@
       </c>
       <c r="D39" s="63" t="str">
         <f>IFERROR(VLOOKUP(C39,microcode!A$5:AH$90, 34, FALSE), 0)</f>
-        <v>40000A7</v>
+        <v>0000027</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -8188,7 +7708,7 @@
       </c>
       <c r="D40" s="63" t="str">
         <f>IFERROR(VLOOKUP(C40,microcode!A$5:AH$90, 34, FALSE), 0)</f>
-        <v>0510028</v>
+        <v>0000028</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -8220,7 +7740,7 @@
       </c>
       <c r="D42" s="63" t="str">
         <f>IFERROR(VLOOKUP(C42,microcode!A$5:AH$90, 34, FALSE), 0)</f>
-        <v>40000AA</v>
+        <v>000002A</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -8236,7 +7756,7 @@
       </c>
       <c r="D43" s="63" t="str">
         <f>IFERROR(VLOOKUP(C43,microcode!A$5:AH$90, 34, FALSE), 0)</f>
-        <v>810002B</v>
+        <v>000002B</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -8252,7 +7772,7 @@
       </c>
       <c r="D44" s="63" t="str">
         <f>IFERROR(VLOOKUP(C44,microcode!A$5:AH$90, 34, FALSE), 0)</f>
-        <v>40000AC</v>
+        <v>000002C</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -8268,7 +7788,7 @@
       </c>
       <c r="D45" s="63" t="str">
         <f>IFERROR(VLOOKUP(C45,microcode!A$5:AH$90, 34, FALSE), 0)</f>
-        <v>810002D</v>
+        <v>000002D</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -8284,7 +7804,7 @@
       </c>
       <c r="D46" s="63" t="str">
         <f>IFERROR(VLOOKUP(C46,microcode!A$5:AH$90, 34, FALSE), 0)</f>
-        <v>00800EE</v>
+        <v>000002E</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">

--- a/Spring_25/CS2110/hw03/microcode.xlsx
+++ b/Spring_25/CS2110/hw03/microcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasstone/Documents/Georgia_Tech/Spring_25/CS2110/hw03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD66904-B0CE-9945-A24D-76B704BE7043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD95BFA-8140-7044-9C2F-986EE03F16D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="15000" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="microcode" sheetId="1" r:id="rId1"/>
@@ -1473,9 +1473,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BW88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N62" sqref="C62:N62"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5408,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" s="76">
         <v>0</v>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="AH59" t="str">
         <f>_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(C59:F59), 1), BIN2HEX(_xlfn.CONCAT(G59:N59), 2), BIN2HEX(_xlfn.CONCAT(O59:V59), 2), BIN2HEX(_xlfn.CONCAT(W59:AD59), 2) )</f>
-        <v>049303F</v>
+        <v>041303F</v>
       </c>
     </row>
     <row r="60" spans="1:34" ht="31" x14ac:dyDescent="0.35">
@@ -5543,32 +5543,72 @@
         <v>78</v>
       </c>
       <c r="B62" s="76"/>
-      <c r="C62" s="93"/>
-      <c r="D62" s="94"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="94"/>
-      <c r="G62" s="94"/>
-      <c r="H62" s="94"/>
-      <c r="I62" s="95"/>
-      <c r="J62" s="95"/>
-      <c r="K62" s="95"/>
-      <c r="L62" s="95"/>
-      <c r="M62" s="82"/>
-      <c r="N62" s="83"/>
+      <c r="C62" s="93">
+        <v>1</v>
+      </c>
+      <c r="D62" s="94">
+        <v>0</v>
+      </c>
+      <c r="E62" s="94">
+        <v>0</v>
+      </c>
+      <c r="F62" s="94">
+        <v>0</v>
+      </c>
+      <c r="G62" s="94">
+        <v>0</v>
+      </c>
+      <c r="H62" s="94">
+        <v>0</v>
+      </c>
+      <c r="I62" s="95">
+        <v>0</v>
+      </c>
+      <c r="J62" s="95">
+        <v>0</v>
+      </c>
+      <c r="K62" s="95">
+        <v>1</v>
+      </c>
+      <c r="L62" s="95">
+        <v>0</v>
+      </c>
+      <c r="M62" s="82">
+        <v>0</v>
+      </c>
+      <c r="N62" s="83">
+        <v>0</v>
+      </c>
       <c r="O62" s="83">
         <v>0</v>
       </c>
       <c r="P62" s="83">
         <v>1</v>
       </c>
-      <c r="Q62" s="83"/>
-      <c r="R62" s="82"/>
-      <c r="S62" s="83"/>
-      <c r="T62" s="83"/>
-      <c r="U62" s="82"/>
-      <c r="V62" s="83"/>
-      <c r="W62" s="96"/>
-      <c r="X62" s="96"/>
+      <c r="Q62" s="83">
+        <v>0</v>
+      </c>
+      <c r="R62" s="82">
+        <v>0</v>
+      </c>
+      <c r="S62" s="83">
+        <v>0</v>
+      </c>
+      <c r="T62" s="83">
+        <v>0</v>
+      </c>
+      <c r="U62" s="82">
+        <v>0</v>
+      </c>
+      <c r="V62" s="83">
+        <v>0</v>
+      </c>
+      <c r="W62" s="96">
+        <v>0</v>
+      </c>
+      <c r="X62" s="96">
+        <v>0</v>
+      </c>
       <c r="Y62" s="110">
         <v>1</v>
       </c>
@@ -5589,7 +5629,7 @@
       </c>
       <c r="AH62" t="str">
         <f t="shared" ref="AH62:AH68" si="4">_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(C62:F62), 1), BIN2HEX(_xlfn.CONCAT(G62:N62), 2), BIN2HEX(_xlfn.CONCAT(O62:V62), 2), BIN2HEX(_xlfn.CONCAT(W62:AD62), 2) )</f>
-        <v>0000129</v>
+        <v>8084029</v>
       </c>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.2">
@@ -5597,32 +5637,72 @@
         <v>79</v>
       </c>
       <c r="B63" s="76"/>
-      <c r="C63" s="93"/>
-      <c r="D63" s="94"/>
-      <c r="E63" s="94"/>
-      <c r="F63" s="94"/>
-      <c r="G63" s="94"/>
-      <c r="H63" s="94"/>
-      <c r="I63" s="95"/>
-      <c r="J63" s="95"/>
-      <c r="K63" s="95"/>
-      <c r="L63" s="95"/>
-      <c r="M63" s="82"/>
-      <c r="N63" s="83"/>
+      <c r="C63" s="93">
+        <v>0</v>
+      </c>
+      <c r="D63" s="94">
+        <v>1</v>
+      </c>
+      <c r="E63" s="94">
+        <v>0</v>
+      </c>
+      <c r="F63" s="94">
+        <v>0</v>
+      </c>
+      <c r="G63" s="94">
+        <v>0</v>
+      </c>
+      <c r="H63" s="94">
+        <v>0</v>
+      </c>
+      <c r="I63" s="95">
+        <v>0</v>
+      </c>
+      <c r="J63" s="95">
+        <v>0</v>
+      </c>
+      <c r="K63" s="95">
+        <v>0</v>
+      </c>
+      <c r="L63" s="95">
+        <v>0</v>
+      </c>
+      <c r="M63" s="82">
+        <v>0</v>
+      </c>
+      <c r="N63" s="83">
+        <v>0</v>
+      </c>
       <c r="O63" s="83">
         <v>0</v>
       </c>
       <c r="P63" s="83">
         <v>0</v>
       </c>
-      <c r="Q63" s="83"/>
-      <c r="R63" s="82"/>
-      <c r="S63" s="83"/>
-      <c r="T63" s="83"/>
-      <c r="U63" s="82"/>
-      <c r="V63" s="83"/>
-      <c r="W63" s="96"/>
-      <c r="X63" s="96"/>
+      <c r="Q63" s="83">
+        <v>0</v>
+      </c>
+      <c r="R63" s="82">
+        <v>0</v>
+      </c>
+      <c r="S63" s="83">
+        <v>0</v>
+      </c>
+      <c r="T63" s="83">
+        <v>0</v>
+      </c>
+      <c r="U63" s="82">
+        <v>0</v>
+      </c>
+      <c r="V63" s="83">
+        <v>0</v>
+      </c>
+      <c r="W63" s="96">
+        <v>1</v>
+      </c>
+      <c r="X63" s="96">
+        <v>1</v>
+      </c>
       <c r="Y63" s="110">
         <v>1</v>
       </c>
@@ -5643,7 +5723,7 @@
       </c>
       <c r="AH63" t="str">
         <f t="shared" si="4"/>
-        <v>000002A</v>
+        <v>40000EA</v>
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.2">
@@ -5651,32 +5731,72 @@
         <v>80</v>
       </c>
       <c r="B64" s="76"/>
-      <c r="C64" s="93"/>
-      <c r="D64" s="94"/>
-      <c r="E64" s="94"/>
-      <c r="F64" s="94"/>
-      <c r="G64" s="94"/>
-      <c r="H64" s="94"/>
-      <c r="I64" s="95"/>
-      <c r="J64" s="95"/>
-      <c r="K64" s="95"/>
-      <c r="L64" s="95"/>
-      <c r="M64" s="82"/>
-      <c r="N64" s="83"/>
+      <c r="C64" s="93">
+        <v>1</v>
+      </c>
+      <c r="D64" s="94">
+        <v>0</v>
+      </c>
+      <c r="E64" s="94">
+        <v>0</v>
+      </c>
+      <c r="F64" s="94">
+        <v>0</v>
+      </c>
+      <c r="G64" s="94">
+        <v>0</v>
+      </c>
+      <c r="H64" s="94">
+        <v>0</v>
+      </c>
+      <c r="I64" s="95">
+        <v>0</v>
+      </c>
+      <c r="J64" s="95">
+        <v>1</v>
+      </c>
+      <c r="K64" s="95">
+        <v>0</v>
+      </c>
+      <c r="L64" s="95">
+        <v>0</v>
+      </c>
+      <c r="M64" s="82">
+        <v>0</v>
+      </c>
+      <c r="N64" s="83">
+        <v>0</v>
+      </c>
       <c r="O64" s="83">
         <v>0</v>
       </c>
       <c r="P64" s="83">
         <v>0</v>
       </c>
-      <c r="Q64" s="83"/>
-      <c r="R64" s="82"/>
-      <c r="S64" s="83"/>
-      <c r="T64" s="83"/>
-      <c r="U64" s="82"/>
-      <c r="V64" s="83"/>
-      <c r="W64" s="96"/>
-      <c r="X64" s="96"/>
+      <c r="Q64" s="83">
+        <v>0</v>
+      </c>
+      <c r="R64" s="82">
+        <v>0</v>
+      </c>
+      <c r="S64" s="83">
+        <v>0</v>
+      </c>
+      <c r="T64" s="83">
+        <v>0</v>
+      </c>
+      <c r="U64" s="82">
+        <v>0</v>
+      </c>
+      <c r="V64" s="83">
+        <v>0</v>
+      </c>
+      <c r="W64" s="96">
+        <v>1</v>
+      </c>
+      <c r="X64" s="96">
+        <v>0</v>
+      </c>
       <c r="Y64" s="110">
         <v>1</v>
       </c>
@@ -5697,7 +5817,7 @@
       </c>
       <c r="AH64" t="str">
         <f t="shared" si="4"/>
-        <v>000002B</v>
+        <v>81000AB</v>
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.2">
@@ -5705,32 +5825,72 @@
         <v>81</v>
       </c>
       <c r="B65" s="130"/>
-      <c r="C65" s="93"/>
-      <c r="D65" s="93"/>
-      <c r="E65" s="93"/>
-      <c r="F65" s="93"/>
-      <c r="G65" s="93"/>
-      <c r="H65" s="93"/>
-      <c r="I65" s="81"/>
-      <c r="J65" s="81"/>
-      <c r="K65" s="81"/>
-      <c r="L65" s="81"/>
-      <c r="M65" s="85"/>
-      <c r="N65" s="83"/>
-      <c r="O65" s="84">
-        <v>0</v>
-      </c>
-      <c r="P65" s="84">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="84"/>
-      <c r="R65" s="85"/>
-      <c r="S65" s="83"/>
-      <c r="T65" s="84"/>
-      <c r="U65" s="85"/>
-      <c r="V65" s="83"/>
-      <c r="W65" s="109"/>
-      <c r="X65" s="109"/>
+      <c r="C65" s="93">
+        <v>0</v>
+      </c>
+      <c r="D65" s="94">
+        <v>1</v>
+      </c>
+      <c r="E65" s="94">
+        <v>0</v>
+      </c>
+      <c r="F65" s="94">
+        <v>0</v>
+      </c>
+      <c r="G65" s="94">
+        <v>0</v>
+      </c>
+      <c r="H65" s="94">
+        <v>0</v>
+      </c>
+      <c r="I65" s="95">
+        <v>0</v>
+      </c>
+      <c r="J65" s="95">
+        <v>0</v>
+      </c>
+      <c r="K65" s="95">
+        <v>0</v>
+      </c>
+      <c r="L65" s="95">
+        <v>0</v>
+      </c>
+      <c r="M65" s="82">
+        <v>0</v>
+      </c>
+      <c r="N65" s="83">
+        <v>0</v>
+      </c>
+      <c r="O65" s="83">
+        <v>0</v>
+      </c>
+      <c r="P65" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="83">
+        <v>0</v>
+      </c>
+      <c r="R65" s="82">
+        <v>0</v>
+      </c>
+      <c r="S65" s="83">
+        <v>0</v>
+      </c>
+      <c r="T65" s="83">
+        <v>0</v>
+      </c>
+      <c r="U65" s="82">
+        <v>0</v>
+      </c>
+      <c r="V65" s="83">
+        <v>0</v>
+      </c>
+      <c r="W65" s="96">
+        <v>1</v>
+      </c>
+      <c r="X65" s="96">
+        <v>1</v>
+      </c>
       <c r="Y65" s="97">
         <v>1</v>
       </c>
@@ -5751,7 +5911,7 @@
       </c>
       <c r="AH65" t="str">
         <f t="shared" si="4"/>
-        <v>000002C</v>
+        <v>40000EC</v>
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.2">
@@ -5759,32 +5919,72 @@
         <v>82</v>
       </c>
       <c r="B66" s="76"/>
-      <c r="C66" s="93"/>
-      <c r="D66" s="94"/>
-      <c r="E66" s="94"/>
-      <c r="F66" s="94"/>
-      <c r="G66" s="94"/>
-      <c r="H66" s="94"/>
-      <c r="I66" s="95"/>
-      <c r="J66" s="95"/>
-      <c r="K66" s="95"/>
-      <c r="L66" s="95"/>
-      <c r="M66" s="82"/>
-      <c r="N66" s="83"/>
+      <c r="C66" s="93">
+        <v>1</v>
+      </c>
+      <c r="D66" s="94">
+        <v>0</v>
+      </c>
+      <c r="E66" s="94">
+        <v>0</v>
+      </c>
+      <c r="F66" s="94">
+        <v>0</v>
+      </c>
+      <c r="G66" s="94">
+        <v>0</v>
+      </c>
+      <c r="H66" s="94">
+        <v>0</v>
+      </c>
+      <c r="I66" s="95">
+        <v>0</v>
+      </c>
+      <c r="J66" s="95">
+        <v>1</v>
+      </c>
+      <c r="K66" s="95">
+        <v>0</v>
+      </c>
+      <c r="L66" s="95">
+        <v>0</v>
+      </c>
+      <c r="M66" s="82">
+        <v>0</v>
+      </c>
+      <c r="N66" s="83">
+        <v>0</v>
+      </c>
       <c r="O66" s="83">
         <v>0</v>
       </c>
       <c r="P66" s="83">
         <v>0</v>
       </c>
-      <c r="Q66" s="83"/>
-      <c r="R66" s="82"/>
-      <c r="S66" s="83"/>
-      <c r="T66" s="83"/>
-      <c r="U66" s="82"/>
-      <c r="V66" s="83"/>
-      <c r="W66" s="96"/>
-      <c r="X66" s="126"/>
+      <c r="Q66" s="83">
+        <v>0</v>
+      </c>
+      <c r="R66" s="82">
+        <v>0</v>
+      </c>
+      <c r="S66" s="83">
+        <v>0</v>
+      </c>
+      <c r="T66" s="83">
+        <v>0</v>
+      </c>
+      <c r="U66" s="82">
+        <v>0</v>
+      </c>
+      <c r="V66" s="83">
+        <v>0</v>
+      </c>
+      <c r="W66" s="96">
+        <v>1</v>
+      </c>
+      <c r="X66" s="96">
+        <v>0</v>
+      </c>
       <c r="Y66" s="97">
         <v>1</v>
       </c>
@@ -5805,7 +6005,7 @@
       </c>
       <c r="AH66" t="str">
         <f t="shared" si="4"/>
-        <v>000002D</v>
+        <v>81000AD</v>
       </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.2">
@@ -5813,32 +6013,72 @@
         <v>83</v>
       </c>
       <c r="B67" s="76"/>
-      <c r="C67" s="93"/>
-      <c r="D67" s="94"/>
-      <c r="E67" s="94"/>
-      <c r="F67" s="94"/>
-      <c r="G67" s="94"/>
-      <c r="H67" s="94"/>
-      <c r="I67" s="95"/>
-      <c r="J67" s="95"/>
-      <c r="K67" s="95"/>
-      <c r="L67" s="95"/>
-      <c r="M67" s="82"/>
-      <c r="N67" s="83"/>
+      <c r="C67" s="93">
+        <v>0</v>
+      </c>
+      <c r="D67" s="94">
+        <v>1</v>
+      </c>
+      <c r="E67" s="94">
+        <v>0</v>
+      </c>
+      <c r="F67" s="94">
+        <v>0</v>
+      </c>
+      <c r="G67" s="94">
+        <v>0</v>
+      </c>
+      <c r="H67" s="94">
+        <v>0</v>
+      </c>
+      <c r="I67" s="95">
+        <v>0</v>
+      </c>
+      <c r="J67" s="95">
+        <v>0</v>
+      </c>
+      <c r="K67" s="95">
+        <v>0</v>
+      </c>
+      <c r="L67" s="95">
+        <v>0</v>
+      </c>
+      <c r="M67" s="82">
+        <v>0</v>
+      </c>
+      <c r="N67" s="83">
+        <v>0</v>
+      </c>
       <c r="O67" s="83">
         <v>0</v>
       </c>
       <c r="P67" s="83">
         <v>0</v>
       </c>
-      <c r="Q67" s="83"/>
-      <c r="R67" s="82"/>
-      <c r="S67" s="83"/>
-      <c r="T67" s="83"/>
-      <c r="U67" s="82"/>
-      <c r="V67" s="83"/>
-      <c r="W67" s="96"/>
-      <c r="X67" s="126"/>
+      <c r="Q67" s="83">
+        <v>0</v>
+      </c>
+      <c r="R67" s="82">
+        <v>0</v>
+      </c>
+      <c r="S67" s="83">
+        <v>0</v>
+      </c>
+      <c r="T67" s="83">
+        <v>0</v>
+      </c>
+      <c r="U67" s="82">
+        <v>0</v>
+      </c>
+      <c r="V67" s="83">
+        <v>0</v>
+      </c>
+      <c r="W67" s="96">
+        <v>1</v>
+      </c>
+      <c r="X67" s="96">
+        <v>1</v>
+      </c>
       <c r="Y67" s="97">
         <v>1</v>
       </c>
@@ -5859,7 +6099,7 @@
       </c>
       <c r="AH67" t="str">
         <f t="shared" si="4"/>
-        <v>000002E</v>
+        <v>40000EE</v>
       </c>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.2">
@@ -5867,37 +6107,77 @@
         <v>84</v>
       </c>
       <c r="B68" s="76"/>
-      <c r="C68" s="93"/>
-      <c r="D68" s="94"/>
-      <c r="E68" s="94"/>
-      <c r="F68" s="94"/>
-      <c r="G68" s="94"/>
-      <c r="H68" s="94"/>
-      <c r="I68" s="95"/>
-      <c r="J68" s="95"/>
-      <c r="K68" s="95"/>
-      <c r="L68" s="95"/>
-      <c r="M68" s="82"/>
-      <c r="N68" s="83"/>
+      <c r="C68" s="93">
+        <v>0</v>
+      </c>
+      <c r="D68" s="94">
+        <v>0</v>
+      </c>
+      <c r="E68" s="94">
+        <v>0</v>
+      </c>
+      <c r="F68" s="94">
+        <v>1</v>
+      </c>
+      <c r="G68" s="94">
+        <v>0</v>
+      </c>
+      <c r="H68" s="94">
+        <v>0</v>
+      </c>
+      <c r="I68" s="95">
+        <v>0</v>
+      </c>
+      <c r="J68" s="95">
+        <v>1</v>
+      </c>
+      <c r="K68" s="95">
+        <v>0</v>
+      </c>
+      <c r="L68" s="95">
+        <v>0</v>
+      </c>
+      <c r="M68" s="82">
+        <v>0</v>
+      </c>
+      <c r="N68" s="83">
+        <v>0</v>
+      </c>
       <c r="O68" s="83">
         <v>0</v>
       </c>
       <c r="P68" s="83">
         <v>0</v>
       </c>
-      <c r="Q68" s="83"/>
-      <c r="R68" s="82"/>
-      <c r="S68" s="83"/>
-      <c r="T68" s="83"/>
-      <c r="U68" s="82"/>
-      <c r="V68" s="83"/>
-      <c r="W68" s="96"/>
-      <c r="X68" s="126"/>
+      <c r="Q68" s="83">
+        <v>0</v>
+      </c>
+      <c r="R68" s="82">
+        <v>0</v>
+      </c>
+      <c r="S68" s="83">
+        <v>0</v>
+      </c>
+      <c r="T68" s="83">
+        <v>0</v>
+      </c>
+      <c r="U68" s="82">
+        <v>0</v>
+      </c>
+      <c r="V68" s="83">
+        <v>0</v>
+      </c>
+      <c r="W68" s="96">
+        <v>0</v>
+      </c>
+      <c r="X68" s="126">
+        <v>0</v>
+      </c>
       <c r="Y68" s="97">
         <v>1</v>
       </c>
       <c r="Z68" s="97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA68" s="97">
         <v>1</v>
@@ -5913,7 +6193,7 @@
       </c>
       <c r="AH68" t="str">
         <f t="shared" si="4"/>
-        <v>000003F</v>
+        <v>110002F</v>
       </c>
     </row>
     <row r="69" spans="1:34" ht="31" x14ac:dyDescent="0.35">
@@ -7050,7 +7330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D64" sqref="D1:D64"/>
     </sheetView>
   </sheetViews>
@@ -7272,7 +7552,7 @@
       </c>
       <c r="D13" s="63" t="str">
         <f>IFERROR(VLOOKUP(C13,microcode!A$5:AH$90, 34, FALSE), 0)</f>
-        <v>049303F</v>
+        <v>041303F</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -7288,7 +7568,7 @@
       </c>
       <c r="D14" s="63" t="str">
         <f>IFERROR(VLOOKUP(C14,microcode!A$5:AH$90, 34, FALSE), 0)</f>
-        <v>0000129</v>
+        <v>8084029</v>
       </c>
       <c r="E14" t="s">
         <v>88</v>
@@ -7740,7 +8020,7 @@
       </c>
       <c r="D42" s="63" t="str">
         <f>IFERROR(VLOOKUP(C42,microcode!A$5:AH$90, 34, FALSE), 0)</f>
-        <v>000002A</v>
+        <v>40000EA</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -7756,7 +8036,7 @@
       </c>
       <c r="D43" s="63" t="str">
         <f>IFERROR(VLOOKUP(C43,microcode!A$5:AH$90, 34, FALSE), 0)</f>
-        <v>000002B</v>
+        <v>81000AB</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -7772,7 +8052,7 @@
       </c>
       <c r="D44" s="63" t="str">
         <f>IFERROR(VLOOKUP(C44,microcode!A$5:AH$90, 34, FALSE), 0)</f>
-        <v>000002C</v>
+        <v>40000EC</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -7788,7 +8068,7 @@
       </c>
       <c r="D45" s="63" t="str">
         <f>IFERROR(VLOOKUP(C45,microcode!A$5:AH$90, 34, FALSE), 0)</f>
-        <v>000002D</v>
+        <v>81000AD</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -7804,7 +8084,7 @@
       </c>
       <c r="D46" s="63" t="str">
         <f>IFERROR(VLOOKUP(C46,microcode!A$5:AH$90, 34, FALSE), 0)</f>
-        <v>000002E</v>
+        <v>40000EE</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -7820,7 +8100,7 @@
       </c>
       <c r="D47" s="63" t="str">
         <f>IFERROR(VLOOKUP(C47,microcode!A$5:AH$90, 34, FALSE), 0)</f>
-        <v>000003F</v>
+        <v>110002F</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
